--- a/output/master_report.xlsx
+++ b/output/master_report.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>Alice</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45748</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ivy</t>
+          <t>Bob</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>870</v>
+        <v>800</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45749</v>
+        <v>45659</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jack</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,117 +508,117 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45750</v>
+        <v>45660</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>1100</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45717</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Grace</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45658</v>
+        <v>45718</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45659</v>
+        <v>45748</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ivy</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>500</v>
+        <v>870</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45660</v>
+        <v>45749</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Jack</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45717</v>
+        <v>45750</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Grace</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>950</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>45718</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
